--- a/scene_cat_exp_2023.2/input_files/10_scenecat_memory_living_rooms_1.xlsx
+++ b/scene_cat_exp_2023.2/input_files/10_scenecat_memory_living_rooms_1.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -502,29 +502,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_xy930.png</t>
+          <t>stimuli/img_es7o2.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>70.5952380952381</v>
+        <v>52.48571428571429</v>
       </c>
       <c r="N2">
-        <v>49.47619047619047</v>
+        <v>27.54285714285714</v>
       </c>
       <c r="O2">
-        <v>60.03571428571429</v>
+        <v>40.01428571428572</v>
       </c>
       <c r="P2">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,35 +555,40 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_0jzz7.png</t>
+          <t>stimuli/img_p659z.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>84.85106382978724</v>
+        <v>84.21621621621621</v>
       </c>
       <c r="N3">
-        <v>68.87234042553192</v>
+        <v>65.37837837837837</v>
       </c>
       <c r="O3">
-        <v>76.86170212765958</v>
+        <v>74.79729729729729</v>
       </c>
       <c r="P3">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="Q3">
         <v>9</v>
@@ -605,7 +610,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -614,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -623,7 +628,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -638,29 +643,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_c0ecw.png</t>
+          <t>stimuli/img_mgnmm.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>18.88888888888889</v>
+        <v>79.14705882352941</v>
       </c>
       <c r="N4">
-        <v>17.82222222222222</v>
+        <v>60.38235294117647</v>
       </c>
       <c r="O4">
-        <v>18.35555555555555</v>
+        <v>69.76470588235294</v>
       </c>
       <c r="P4">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -673,7 +678,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -682,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -691,7 +696,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -711,29 +716,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_bbs77.png</t>
+          <t>stimuli/img_ncr40.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>31.64444444444445</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="N5">
-        <v>21.26666666666667</v>
+        <v>54.27272727272727</v>
       </c>
       <c r="O5">
-        <v>26.45555555555556</v>
+        <v>64.96969696969697</v>
       </c>
       <c r="P5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -746,7 +751,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -755,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -764,7 +769,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -784,29 +789,29 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_wz6x5.png</t>
+          <t>stimuli/img_84s7n.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>68.3695652173913</v>
+        <v>11.03125</v>
       </c>
       <c r="N6">
-        <v>48.47826086956522</v>
+        <v>2.90625</v>
       </c>
       <c r="O6">
-        <v>58.42391304347826</v>
+        <v>6.96875</v>
       </c>
       <c r="P6">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -819,7 +824,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -828,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -837,7 +842,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -852,20 +857,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_dg5h7.png</t>
+          <t>stimuli/img_vbrb7.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>88.72093023255815</v>
+        <v>85.5625</v>
       </c>
       <c r="N7">
-        <v>76.06976744186046</v>
+        <v>71.46875</v>
       </c>
       <c r="O7">
-        <v>82.3953488372093</v>
+        <v>78.515625</v>
       </c>
       <c r="P7">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -887,7 +892,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -896,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -905,7 +910,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -925,29 +930,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_6zz63.png</t>
+          <t>stimuli/img_cv9qj.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>87.66666666666667</v>
+        <v>60.34375</v>
       </c>
       <c r="N8">
-        <v>70.59999999999999</v>
+        <v>35.34375</v>
       </c>
       <c r="O8">
-        <v>79.13333333333333</v>
+        <v>47.84375</v>
       </c>
       <c r="P8">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -960,7 +965,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -969,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -978,7 +983,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -998,29 +1003,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_4o8l0.png</t>
+          <t>stimuli/img_ua9bs.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>46.02173913043478</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>31.45652173913043</v>
+        <v>62.23333333333333</v>
       </c>
       <c r="O9">
-        <v>38.73913043478261</v>
+        <v>72.11666666666667</v>
       </c>
       <c r="P9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1033,7 +1038,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1042,58 +1047,27 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_eh0no.png</t>
-        </is>
-      </c>
-      <c r="M10">
-        <v>53.66666666666666</v>
-      </c>
-      <c r="N10">
-        <v>36.02564102564103</v>
-      </c>
-      <c r="O10">
-        <v>44.84615384615385</v>
-      </c>
-      <c r="P10">
-        <v>39</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10">
-        <v>3</v>
+          <t>stimuli/catch_27.jpg</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1080,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1115,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1124,7 +1098,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1144,29 +1118,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_wgkqa.png</t>
+          <t>stimuli/img_05flq.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>87.25581395348837</v>
+        <v>47.10344827586207</v>
       </c>
       <c r="N11">
-        <v>71.13953488372093</v>
+        <v>25.72413793103448</v>
       </c>
       <c r="O11">
-        <v>79.19767441860465</v>
+        <v>36.41379310344828</v>
       </c>
       <c r="P11">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1179,7 +1153,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1188,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1197,7 +1171,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1217,29 +1191,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_cehin.png</t>
+          <t>stimuli/img_ifebc.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>78.86363636363636</v>
+        <v>84</v>
       </c>
       <c r="N12">
-        <v>60.02272727272727</v>
+        <v>65.88235294117646</v>
       </c>
       <c r="O12">
-        <v>69.44318181818181</v>
+        <v>74.94117647058823</v>
       </c>
       <c r="P12">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S12">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1252,7 +1226,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1261,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1270,49 +1244,44 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_w8yhd.png</t>
+          <t>stimuli/img_zi8qc.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>55.74418604651163</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="N13">
-        <v>38.90697674418605</v>
+        <v>57.02857142857143</v>
       </c>
       <c r="O13">
-        <v>47.32558139534883</v>
+        <v>67.08571428571429</v>
       </c>
       <c r="P13">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1325,7 +1294,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1334,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1343,44 +1312,49 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_f63yi.png</t>
+          <t>stimuli/img_xesl0.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>85.27500000000001</v>
+        <v>69.28571428571429</v>
       </c>
       <c r="N14">
-        <v>68.47499999999999</v>
+        <v>47.35714285714285</v>
       </c>
       <c r="O14">
-        <v>76.875</v>
+        <v>58.32142857142857</v>
       </c>
       <c r="P14">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1393,7 +1367,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1402,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1411,38 +1385,43 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_i6wsx.png</t>
+          <t>stimuli/img_7pgd2.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>79.07142857142857</v>
+        <v>78.59375</v>
       </c>
       <c r="N15">
-        <v>58</v>
+        <v>57.84375</v>
       </c>
       <c r="O15">
-        <v>68.53571428571428</v>
+        <v>68.21875</v>
       </c>
       <c r="P15">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R15">
         <v>7</v>
@@ -1461,7 +1440,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1470,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1479,40 +1458,35 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_kost0.png</t>
+          <t>stimuli/img_z5osu.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>63.09090909090909</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="N16">
-        <v>42.77272727272727</v>
+        <v>47.34285714285714</v>
       </c>
       <c r="O16">
-        <v>52.93181818181819</v>
+        <v>59.38571428571429</v>
       </c>
       <c r="P16">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -1534,7 +1508,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1543,7 +1517,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1552,44 +1526,49 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_b17ma.png</t>
+          <t>stimuli/img_c79r7.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>23.0625</v>
+        <v>56.26470588235294</v>
       </c>
       <c r="N17">
-        <v>13.375</v>
+        <v>34.26470588235294</v>
       </c>
       <c r="O17">
-        <v>18.21875</v>
+        <v>45.26470588235294</v>
       </c>
       <c r="P17">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1602,7 +1581,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1611,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1620,7 +1599,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1640,29 +1619,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_xu1p3.png</t>
+          <t>stimuli/img_xti0z.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>75.27659574468085</v>
+        <v>81.40625</v>
       </c>
       <c r="N18">
-        <v>56.68085106382978</v>
+        <v>61.4375</v>
       </c>
       <c r="O18">
-        <v>65.97872340425532</v>
+        <v>71.421875</v>
       </c>
       <c r="P18">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1675,7 +1654,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1684,7 +1663,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1693,7 +1672,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1713,29 +1692,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_xbtev.png</t>
+          <t>stimuli/img_c0me7.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>13.68181818181818</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N19">
-        <v>8.568181818181818</v>
+        <v>45.62857142857143</v>
       </c>
       <c r="O19">
-        <v>11.125</v>
+        <v>57.01428571428572</v>
       </c>
       <c r="P19">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1748,7 +1727,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1757,27 +1736,58 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/catch_04.jpg</t>
-        </is>
+          <t>stimuli/img_s9are.png</t>
+        </is>
+      </c>
+      <c r="M20">
+        <v>90.14285714285714</v>
+      </c>
+      <c r="N20">
+        <v>75.22857142857143</v>
+      </c>
+      <c r="O20">
+        <v>82.68571428571428</v>
+      </c>
+      <c r="P20">
+        <v>35</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1790,7 +1800,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1799,7 +1809,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1808,44 +1818,49 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_314bq.png</t>
+          <t>stimuli/img_i2k07.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>37.08888888888889</v>
+        <v>64.25925925925925</v>
       </c>
       <c r="N21">
-        <v>20.04444444444444</v>
+        <v>40.92592592592592</v>
       </c>
       <c r="O21">
-        <v>28.56666666666667</v>
+        <v>52.59259259259259</v>
       </c>
       <c r="P21">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1858,7 +1873,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1867,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1876,7 +1891,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1896,29 +1911,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_bj99b.png</t>
+          <t>stimuli/img_jz3kd.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>82.79069767441861</v>
+        <v>72.79411764705883</v>
       </c>
       <c r="N22">
-        <v>65.46511627906976</v>
+        <v>51.64705882352941</v>
       </c>
       <c r="O22">
-        <v>74.12790697674419</v>
+        <v>62.22058823529412</v>
       </c>
       <c r="P22">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1931,7 +1946,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1940,7 +1955,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1949,7 +1964,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1969,29 +1984,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_tujn3.png</t>
+          <t>stimuli/img_bwo9g.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>81.40909090909091</v>
+        <v>64.81818181818181</v>
       </c>
       <c r="N23">
-        <v>62.52272727272727</v>
+        <v>42.36363636363637</v>
       </c>
       <c r="O23">
-        <v>71.96590909090909</v>
+        <v>53.59090909090909</v>
       </c>
       <c r="P23">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S23">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -2004,7 +2019,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2013,7 +2028,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2022,7 +2037,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2042,29 +2057,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_6a0hu.png</t>
+          <t>stimuli/img_uy1n4.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>61.275</v>
+        <v>76.30555555555556</v>
       </c>
       <c r="N24">
-        <v>42.025</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="O24">
-        <v>51.65</v>
+        <v>65.81944444444444</v>
       </c>
       <c r="P24">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2077,7 +2092,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2086,7 +2101,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2095,49 +2110,44 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_0kqc0.png</t>
+          <t>stimuli/img_mawe6.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>43.74468085106383</v>
+        <v>83.48387096774194</v>
       </c>
       <c r="N25">
-        <v>27.14893617021277</v>
+        <v>65.54838709677419</v>
       </c>
       <c r="O25">
-        <v>35.4468085106383</v>
+        <v>74.51612903225806</v>
       </c>
       <c r="P25">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2150,7 +2160,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2159,7 +2169,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2168,49 +2178,44 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_95hiv.png</t>
+          <t>stimuli/img_hfz8w.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>84.04545454545455</v>
+        <v>55.46153846153846</v>
       </c>
       <c r="N26">
-        <v>67.31818181818181</v>
+        <v>27.28205128205128</v>
       </c>
       <c r="O26">
-        <v>75.68181818181819</v>
+        <v>41.37179487179487</v>
       </c>
       <c r="P26">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2223,7 +2228,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2232,7 +2237,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2241,7 +2246,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2261,29 +2266,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_abobq.png</t>
+          <t>stimuli/img_j5rpx.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>75.18421052631579</v>
+        <v>72.24242424242425</v>
       </c>
       <c r="N27">
-        <v>54.13157894736842</v>
+        <v>50</v>
       </c>
       <c r="O27">
-        <v>64.65789473684211</v>
+        <v>61.12121212121212</v>
       </c>
       <c r="P27">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2296,7 +2301,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2305,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2314,49 +2319,44 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_pey7u.png</t>
+          <t>stimuli/img_qmgwq.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>30.34883720930232</v>
+        <v>84.58333333333333</v>
       </c>
       <c r="N28">
-        <v>20.34883720930232</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="O28">
-        <v>25.34883720930232</v>
+        <v>74.51388888888889</v>
       </c>
       <c r="P28">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2378,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2407,29 +2407,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_di6f0.png</t>
+          <t>stimuli/img_6nbgt.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>94.04347826086956</v>
+        <v>78.45161290322581</v>
       </c>
       <c r="N29">
-        <v>83.34782608695652</v>
+        <v>57.83870967741935</v>
       </c>
       <c r="O29">
-        <v>88.69565217391303</v>
+        <v>68.14516129032258</v>
       </c>
       <c r="P29">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S29">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2/input_files/10_scenecat_memory_living_rooms_1.xlsx
+++ b/scene_cat_exp_2023.2/input_files/10_scenecat_memory_living_rooms_1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,49 +482,44 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_es7o2.png</t>
+          <t>stimuli/img_il020.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>52.48571428571429</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="N2">
-        <v>27.54285714285714</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="O2">
-        <v>40.01428571428572</v>
+        <v>17.51041666666667</v>
       </c>
       <c r="P2">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +532,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -546,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -575,29 +570,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_p659z.png</t>
+          <t>stimuli/img_wgkqa.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>84.21621621621621</v>
+        <v>87.25581395348837</v>
       </c>
       <c r="N3">
-        <v>65.37837837837837</v>
+        <v>71.13953488372093</v>
       </c>
       <c r="O3">
-        <v>74.79729729729729</v>
+        <v>79.19767441860465</v>
       </c>
       <c r="P3">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -610,7 +605,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -619,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -628,44 +623,49 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_mgnmm.png</t>
+          <t>stimuli/img_amsgw.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>79.14705882352941</v>
+        <v>86.08510638297872</v>
       </c>
       <c r="N4">
-        <v>60.38235294117647</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="O4">
-        <v>69.76470588235294</v>
+        <v>76.02127659574468</v>
       </c>
       <c r="P4">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -696,49 +696,44 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_ncr40.png</t>
+          <t>stimuli/img_b17ma.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>75.66666666666667</v>
+        <v>23.0625</v>
       </c>
       <c r="N5">
-        <v>54.27272727272727</v>
+        <v>13.375</v>
       </c>
       <c r="O5">
-        <v>64.96969696969697</v>
+        <v>18.21875</v>
       </c>
       <c r="P5">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -751,7 +746,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -760,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -769,49 +764,44 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_84s7n.png</t>
+          <t>stimuli/img_15bss.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>11.03125</v>
+        <v>88.42222222222222</v>
       </c>
       <c r="N6">
-        <v>2.90625</v>
+        <v>75.35555555555555</v>
       </c>
       <c r="O6">
-        <v>6.96875</v>
+        <v>81.88888888888889</v>
       </c>
       <c r="P6">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +814,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -833,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -842,7 +832,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -857,29 +847,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_vbrb7.png</t>
+          <t>stimuli/img_3jnt7.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>85.5625</v>
+        <v>49.52272727272727</v>
       </c>
       <c r="N7">
-        <v>71.46875</v>
+        <v>35.25</v>
       </c>
       <c r="O7">
-        <v>78.515625</v>
+        <v>42.38636363636364</v>
       </c>
       <c r="P7">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +882,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -901,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -910,7 +900,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -930,29 +920,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_cv9qj.png</t>
+          <t>stimuli/img_wz6x5.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>60.34375</v>
+        <v>68.3695652173913</v>
       </c>
       <c r="N8">
-        <v>35.34375</v>
+        <v>48.47826086956522</v>
       </c>
       <c r="O8">
-        <v>47.84375</v>
+        <v>58.42391304347826</v>
       </c>
       <c r="P8">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -965,7 +955,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -974,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -983,49 +973,44 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_ua9bs.png</t>
+          <t>stimuli/img_314bq.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>82</v>
+        <v>37.08888888888889</v>
       </c>
       <c r="N9">
-        <v>62.23333333333333</v>
+        <v>20.04444444444444</v>
       </c>
       <c r="O9">
-        <v>72.11666666666667</v>
+        <v>28.56666666666667</v>
       </c>
       <c r="P9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1038,7 +1023,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1047,16 +1032,21 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1066,8 +1056,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/catch_27.jpg</t>
-        </is>
+          <t>stimuli/img_pjfx6.png</t>
+        </is>
+      </c>
+      <c r="M10">
+        <v>32.23404255319149</v>
+      </c>
+      <c r="N10">
+        <v>26.59574468085106</v>
+      </c>
+      <c r="O10">
+        <v>29.41489361702127</v>
+      </c>
+      <c r="P10">
+        <v>47</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1080,7 +1091,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1089,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1098,7 +1109,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1118,29 +1129,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_05flq.png</t>
+          <t>stimuli/img_bj99b.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>47.10344827586207</v>
+        <v>82.79069767441861</v>
       </c>
       <c r="N11">
-        <v>25.72413793103448</v>
+        <v>65.46511627906976</v>
       </c>
       <c r="O11">
-        <v>36.41379310344828</v>
+        <v>74.12790697674419</v>
       </c>
       <c r="P11">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1164,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1162,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1171,49 +1182,44 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_ifebc.png</t>
+          <t>stimuli/img_lgxzn.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>84</v>
+        <v>73.11363636363636</v>
       </c>
       <c r="N12">
-        <v>65.88235294117646</v>
+        <v>49.97727272727273</v>
       </c>
       <c r="O12">
-        <v>74.94117647058823</v>
+        <v>61.54545454545455</v>
       </c>
       <c r="P12">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1226,7 +1232,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1235,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1244,44 +1250,49 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_zi8qc.png</t>
+          <t>stimuli/img_bbs77.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>77.14285714285714</v>
+        <v>31.64444444444445</v>
       </c>
       <c r="N13">
-        <v>57.02857142857143</v>
+        <v>21.26666666666667</v>
       </c>
       <c r="O13">
-        <v>67.08571428571429</v>
+        <v>26.45555555555556</v>
       </c>
       <c r="P13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1294,7 +1305,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1303,7 +1314,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1312,7 +1323,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1332,29 +1343,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_xesl0.png</t>
+          <t>stimuli/img_di6f0.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>69.28571428571429</v>
+        <v>94.04347826086956</v>
       </c>
       <c r="N14">
-        <v>47.35714285714285</v>
+        <v>83.34782608695652</v>
       </c>
       <c r="O14">
-        <v>58.32142857142857</v>
+        <v>88.69565217391303</v>
       </c>
       <c r="P14">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1367,7 +1378,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1376,7 +1387,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1385,7 +1396,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1405,29 +1416,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_7pgd2.png</t>
+          <t>stimuli/img_w8yhd.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>78.59375</v>
+        <v>55.74418604651163</v>
       </c>
       <c r="N15">
-        <v>57.84375</v>
+        <v>38.90697674418605</v>
       </c>
       <c r="O15">
-        <v>68.21875</v>
+        <v>47.32558139534883</v>
       </c>
       <c r="P15">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1440,7 +1451,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1449,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1458,44 +1469,49 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_z5osu.png</t>
+          <t>stimuli/img_6a0hu.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>71.42857142857143</v>
+        <v>61.275</v>
       </c>
       <c r="N16">
-        <v>47.34285714285714</v>
+        <v>42.025</v>
       </c>
       <c r="O16">
-        <v>59.38571428571429</v>
+        <v>51.65</v>
       </c>
       <c r="P16">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1508,7 +1524,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1517,7 +1533,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1526,7 +1542,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1546,29 +1562,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_c79r7.png</t>
+          <t>stimuli/img_abobq.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>56.26470588235294</v>
+        <v>75.18421052631579</v>
       </c>
       <c r="N17">
-        <v>34.26470588235294</v>
+        <v>54.13157894736842</v>
       </c>
       <c r="O17">
-        <v>45.26470588235294</v>
+        <v>64.65789473684211</v>
       </c>
       <c r="P17">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1581,7 +1597,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1590,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1599,7 +1615,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1619,29 +1635,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_xti0z.png</t>
+          <t>stimuli/img_kost0.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>81.40625</v>
+        <v>63.09090909090909</v>
       </c>
       <c r="N18">
-        <v>61.4375</v>
+        <v>42.77272727272727</v>
       </c>
       <c r="O18">
-        <v>71.421875</v>
+        <v>52.93181818181819</v>
       </c>
       <c r="P18">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1654,7 +1670,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1663,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1672,49 +1688,44 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_c0me7.png</t>
+          <t>stimuli/img_emh91.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>68.40000000000001</v>
+        <v>82.06666666666666</v>
       </c>
       <c r="N19">
-        <v>45.62857142857143</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="O19">
-        <v>57.01428571428572</v>
+        <v>72.7</v>
       </c>
       <c r="P19">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1727,7 +1738,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1736,7 +1747,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1745,7 +1756,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1765,29 +1776,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_s9are.png</t>
+          <t>stimuli/img_cehin.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>90.14285714285714</v>
+        <v>78.86363636363636</v>
       </c>
       <c r="N20">
-        <v>75.22857142857143</v>
+        <v>60.02272727272727</v>
       </c>
       <c r="O20">
-        <v>82.68571428571428</v>
+        <v>69.44318181818181</v>
       </c>
       <c r="P20">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1800,7 +1811,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1809,58 +1820,27 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_i2k07.png</t>
-        </is>
-      </c>
-      <c r="M21">
-        <v>64.25925925925925</v>
-      </c>
-      <c r="N21">
-        <v>40.92592592592592</v>
-      </c>
-      <c r="O21">
-        <v>52.59259259259259</v>
-      </c>
-      <c r="P21">
-        <v>27</v>
-      </c>
-      <c r="Q21">
-        <v>3</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
-      <c r="S21">
-        <v>3</v>
+          <t>stimuli/catch_04.jpg</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1873,7 +1853,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1882,7 +1862,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1891,49 +1871,44 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_jz3kd.png</t>
+          <t>stimuli/img_7lz7m.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>72.79411764705883</v>
+        <v>51.5531914893617</v>
       </c>
       <c r="N22">
-        <v>51.64705882352941</v>
+        <v>32.87234042553192</v>
       </c>
       <c r="O22">
-        <v>62.22058823529412</v>
+        <v>42.21276595744681</v>
       </c>
       <c r="P22">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S22">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1946,7 +1921,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1955,7 +1930,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1964,7 +1939,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1984,29 +1959,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_bwo9g.png</t>
+          <t>stimuli/img_xbtev.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>64.81818181818181</v>
+        <v>13.68181818181818</v>
       </c>
       <c r="N23">
-        <v>42.36363636363637</v>
+        <v>8.568181818181818</v>
       </c>
       <c r="O23">
-        <v>53.59090909090909</v>
+        <v>11.125</v>
       </c>
       <c r="P23">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2019,7 +1994,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2028,7 +2003,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2037,7 +2012,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2057,29 +2032,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_uy1n4.png</t>
+          <t>stimuli/img_6zz63.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>76.30555555555556</v>
+        <v>87.66666666666667</v>
       </c>
       <c r="N24">
-        <v>55.33333333333334</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="O24">
-        <v>65.81944444444444</v>
+        <v>79.13333333333333</v>
       </c>
       <c r="P24">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S24">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2092,7 +2067,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2101,7 +2076,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2110,44 +2085,49 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_mawe6.png</t>
+          <t>stimuli/img_pey7u.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>83.48387096774194</v>
+        <v>30.34883720930232</v>
       </c>
       <c r="N25">
-        <v>65.54838709677419</v>
+        <v>20.34883720930232</v>
       </c>
       <c r="O25">
-        <v>74.51612903225806</v>
+        <v>25.34883720930232</v>
       </c>
       <c r="P25">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2160,7 +2140,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2169,7 +2149,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2178,44 +2158,49 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_hfz8w.png</t>
+          <t>stimuli/img_16kib.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>55.46153846153846</v>
+        <v>80.97727272727273</v>
       </c>
       <c r="N26">
-        <v>27.28205128205128</v>
+        <v>61.11363636363637</v>
       </c>
       <c r="O26">
-        <v>41.37179487179487</v>
+        <v>71.04545454545455</v>
       </c>
       <c r="P26">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2228,7 +2213,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2237,7 +2222,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2246,49 +2231,44 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_j5rpx.png</t>
+          <t>stimuli/img_5mw7y.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>72.24242424242425</v>
+        <v>72.65909090909091</v>
       </c>
       <c r="N27">
-        <v>50</v>
+        <v>50.86363636363637</v>
       </c>
       <c r="O27">
-        <v>61.12121212121212</v>
+        <v>61.76136363636364</v>
       </c>
       <c r="P27">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -2301,7 +2281,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2310,7 +2290,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2319,44 +2299,49 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_qmgwq.png</t>
+          <t>stimuli/img_eh0no.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>84.58333333333333</v>
+        <v>53.66666666666666</v>
       </c>
       <c r="N28">
-        <v>64.44444444444444</v>
+        <v>36.02564102564103</v>
       </c>
       <c r="O28">
-        <v>74.51388888888889</v>
+        <v>44.84615384615385</v>
       </c>
       <c r="P28">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S28">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2369,7 +2354,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2378,7 +2363,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2387,40 +2372,35 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_6nbgt.png</t>
+          <t>stimuli/img_fmgjx.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>78.45161290322581</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="N29">
-        <v>57.83870967741935</v>
+        <v>56.975</v>
       </c>
       <c r="O29">
-        <v>68.14516129032258</v>
+        <v>68.4375</v>
       </c>
       <c r="P29">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -2429,6 +2409,910 @@
         <v>7</v>
       </c>
       <c r="S29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>189</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>stimuli/img_89dvt.png</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>81.09756097560975</v>
+      </c>
+      <c r="N30">
+        <v>64.6829268292683</v>
+      </c>
+      <c r="O30">
+        <v>72.89024390243902</v>
+      </c>
+      <c r="P30">
+        <v>41</v>
+      </c>
+      <c r="Q30">
+        <v>8</v>
+      </c>
+      <c r="R30">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>190</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>stimuli/img_dg5h7.png</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>88.72093023255815</v>
+      </c>
+      <c r="N31">
+        <v>76.06976744186046</v>
+      </c>
+      <c r="O31">
+        <v>82.3953488372093</v>
+      </c>
+      <c r="P31">
+        <v>43</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>10</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>191</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>stimuli/img_0kqc0.png</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>43.74468085106383</v>
+      </c>
+      <c r="N32">
+        <v>27.14893617021277</v>
+      </c>
+      <c r="O32">
+        <v>35.4468085106383</v>
+      </c>
+      <c r="P32">
+        <v>47</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>192</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>stimuli/img_lpas9.png</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>59.36585365853659</v>
+      </c>
+      <c r="N33">
+        <v>39.09756097560975</v>
+      </c>
+      <c r="O33">
+        <v>49.23170731707317</v>
+      </c>
+      <c r="P33">
+        <v>41</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>193</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>stimuli/img_zh8ms.png</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>59.82608695652174</v>
+      </c>
+      <c r="N34">
+        <v>39.43478260869565</v>
+      </c>
+      <c r="O34">
+        <v>49.6304347826087</v>
+      </c>
+      <c r="P34">
+        <v>46</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>194</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>stimuli/img_s2zoe.png</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>64.71428571428571</v>
+      </c>
+      <c r="N35">
+        <v>44.90476190476191</v>
+      </c>
+      <c r="O35">
+        <v>54.80952380952381</v>
+      </c>
+      <c r="P35">
+        <v>42</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>195</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>stimuli/img_4o8l0.png</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>46.02173913043478</v>
+      </c>
+      <c r="N36">
+        <v>31.45652173913043</v>
+      </c>
+      <c r="O36">
+        <v>38.73913043478261</v>
+      </c>
+      <c r="P36">
+        <v>46</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>196</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>stimuli/img_0jzz7.png</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>84.85106382978724</v>
+      </c>
+      <c r="N37">
+        <v>68.87234042553192</v>
+      </c>
+      <c r="O37">
+        <v>76.86170212765958</v>
+      </c>
+      <c r="P37">
+        <v>47</v>
+      </c>
+      <c r="Q37">
+        <v>9</v>
+      </c>
+      <c r="R37">
+        <v>9</v>
+      </c>
+      <c r="S37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>197</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>stimuli/img_qrc78.png</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>76.2</v>
+      </c>
+      <c r="N38">
+        <v>59.875</v>
+      </c>
+      <c r="O38">
+        <v>68.03749999999999</v>
+      </c>
+      <c r="P38">
+        <v>40</v>
+      </c>
+      <c r="Q38">
+        <v>7</v>
+      </c>
+      <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>198</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>stimuli/img_xy930.png</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>70.5952380952381</v>
+      </c>
+      <c r="N39">
+        <v>49.47619047619047</v>
+      </c>
+      <c r="O39">
+        <v>60.03571428571429</v>
+      </c>
+      <c r="P39">
+        <v>42</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>6</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>199</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>stimuli/img_f63yi.png</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>85.27500000000001</v>
+      </c>
+      <c r="N40">
+        <v>68.47499999999999</v>
+      </c>
+      <c r="O40">
+        <v>76.875</v>
+      </c>
+      <c r="P40">
+        <v>40</v>
+      </c>
+      <c r="Q40">
+        <v>9</v>
+      </c>
+      <c r="R40">
+        <v>9</v>
+      </c>
+      <c r="S40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>200</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>stimuli/img_eiu3c.png</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>65.15909090909091</v>
+      </c>
+      <c r="N41">
+        <v>46.22727272727273</v>
+      </c>
+      <c r="O41">
+        <v>55.69318181818181</v>
+      </c>
+      <c r="P41">
+        <v>44</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>5</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>201</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>stimuli/img_xu1p3.png</t>
+        </is>
+      </c>
+      <c r="M42">
+        <v>75.27659574468085</v>
+      </c>
+      <c r="N42">
+        <v>56.68085106382978</v>
+      </c>
+      <c r="O42">
+        <v>65.97872340425532</v>
+      </c>
+      <c r="P42">
+        <v>47</v>
+      </c>
+      <c r="Q42">
+        <v>7</v>
+      </c>
+      <c r="R42">
+        <v>7</v>
+      </c>
+      <c r="S42">
         <v>7</v>
       </c>
     </row>
